--- a/data/scheduling_DNN/predict/0.5/result7.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result7.xlsx
@@ -570,10 +570,10 @@
         <v>1.533943176269531</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8793728351593018</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7248145937919617</v>
+        <v>0.4284623265266418</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8980898857116699</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4873190224170685</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04310374706983566</v>
+        <v>0.1687327027320862</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9120159149169922</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.516879141330719</v>
       </c>
       <c r="W4" t="n">
-        <v>0.140352264046669</v>
+        <v>0.1561330705881119</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9663500785827637</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4028667807579041</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2040889710187912</v>
+        <v>0.3175134360790253</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>1.027582168579102</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5054373741149902</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1090977564454079</v>
+        <v>0.2726351916790009</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9149379730224609</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4238518476486206</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1608943492174149</v>
+        <v>0.2411655783653259</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9395229816436768</v>
       </c>
       <c r="V8" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5475756525993347</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3117451667785645</v>
+        <v>0.1536227017641068</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8949239253997803</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4027261734008789</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1837243139743805</v>
+        <v>0.2422586232423782</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>1.169718027114868</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8968284130096436</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2476296871900558</v>
+        <v>0.07446873933076859</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>1.052884101867676</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4909324049949646</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3009328842163086</v>
+        <v>0.3157896995544434</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9132480621337891</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.865971565246582</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05320528149604797</v>
+        <v>0.002235067076981068</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9954349994659424</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8808407783508301</v>
       </c>
       <c r="W13" t="n">
-        <v>0.001923162722960114</v>
+        <v>0.01313183549791574</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8828930854797363</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.3975942432880402</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2516305148601532</v>
+        <v>0.2355149686336517</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9147679805755615</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.3975483775138855</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2863130569458008</v>
+        <v>0.2675161063671112</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8727419376373291</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4939802885055542</v>
       </c>
       <c r="W16" t="n">
-        <v>0.008063804358243942</v>
+        <v>0.1434603929519653</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9279849529266357</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8676199913024902</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2927398383617401</v>
+        <v>0.003643928561359644</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8683798313140869</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4931336641311646</v>
       </c>
       <c r="W18" t="n">
-        <v>0.002761635929346085</v>
+        <v>0.1408096849918365</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8622329235076904</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.5180823802947998</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07477790862321854</v>
+        <v>0.1184395998716354</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8987619876861572</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.879006028175354</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2740035355091095</v>
+        <v>0.0003902979369740933</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8973128795623779</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8987738490104675</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0651494488120079</v>
+        <v>2.134431724698516e-06</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5316481590270996</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.498056173324585</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01565615832805634</v>
+        <v>0.001128421514295042</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5390350818634033</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.3975931107997894</v>
       </c>
       <c r="W23" t="n">
-        <v>0.003776813624426723</v>
+        <v>0.02000583149492741</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5233860015869141</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4866146743297577</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0675429180264473</v>
+        <v>0.001352130551822484</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.525547981262207</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8662007451057434</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001323664328083396</v>
+        <v>0.1160443052649498</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.6153900623321533</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5079270005226135</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0054780556820333</v>
+        <v>0.0115483095869422</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5191471576690674</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8674331307411194</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01333227287977934</v>
+        <v>0.1213031187653542</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5166261196136475</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4950954616069794</v>
       </c>
       <c r="W28" t="n">
-        <v>1.411438461218495e-06</v>
+        <v>0.0004635692457668483</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5253958702087402</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4955399930477142</v>
       </c>
       <c r="W29" t="n">
-        <v>0.000129788473714143</v>
+        <v>0.0008913733763620257</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5260128974914551</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8795022368431091</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0001486305991420522</v>
+        <v>0.1249547153711319</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5728950500488281</v>
       </c>
       <c r="V31" t="n">
-        <v>0.656647801399231</v>
+        <v>0.5156835317611694</v>
       </c>
       <c r="W31" t="n">
-        <v>0.007014523260295391</v>
+        <v>0.003273157868534327</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.548659086227417</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4127309322357178</v>
       </c>
       <c r="W32" t="n">
-        <v>0.002192434621974826</v>
+        <v>0.0184764638543129</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5171880722045898</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4228202402591705</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01295076962560415</v>
+        <v>0.008905287832021713</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5242109298706055</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.5003455877304077</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02186150103807449</v>
+        <v>0.0005695545696653426</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5184760093688965</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.8575982451438904</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01839252561330795</v>
+        <v>0.1150038912892342</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5693509578704834</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.3990683555603027</v>
       </c>
       <c r="W36" t="n">
-        <v>0.04598425328731537</v>
+        <v>0.02899616397917271</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5175681114196777</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.3990933001041412</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0003354333166498691</v>
+        <v>0.0140362810343504</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.537492036819458</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8664722442626953</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02103837579488754</v>
+        <v>0.108227975666523</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5170531272888184</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.3990812301635742</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02764689736068249</v>
+        <v>0.01391736883670092</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5142741203308105</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.5484318137168884</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0001309508661506698</v>
+        <v>0.001166747999377549</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5149941444396973</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.397617369890213</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01238476298749447</v>
+        <v>0.01377730723470449</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3989667892456055</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4985592365264893</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01663203723728657</v>
+        <v>0.009918655268847942</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.416985034942627</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4864295423030853</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01375209726393223</v>
+        <v>0.004822539631277323</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.389503002166748</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.500184178352356</v>
       </c>
       <c r="W44" t="n">
-        <v>0.001499031553976238</v>
+        <v>0.01225032284855843</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.391016960144043</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.8697472214698792</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001618827460333705</v>
+        <v>0.2291826605796814</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3963840007781982</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4974486231803894</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06680560111999512</v>
+        <v>0.01021405775099993</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3975908756256104</v>
       </c>
       <c r="V47" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4219597280025482</v>
       </c>
       <c r="W47" t="n">
-        <v>0.00222186790779233</v>
+        <v>0.000593840959481895</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.402508020401001</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4953190982341766</v>
       </c>
       <c r="W48" t="n">
-        <v>0.00564198475331068</v>
+        <v>0.008613896556198597</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.389617919921875</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.5131713151931763</v>
       </c>
       <c r="W49" t="n">
-        <v>0.08577112108469009</v>
+        <v>0.01526544149965048</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3887062072753906</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.4023623466491699</v>
       </c>
       <c r="W50" t="n">
-        <v>0.3124374449253082</v>
+        <v>0.0001864901423687115</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.4746830463409424</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.3975563645362854</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02821846678853035</v>
+        <v>0.005948524922132492</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3975591659545898</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4215202629566193</v>
       </c>
       <c r="W52" t="n">
-        <v>0.002233897801488638</v>
+        <v>0.0005741341738030314</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3944377899169922</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.3975507020950317</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01465727295726538</v>
+        <v>9.690222213976085e-06</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3912239074707031</v>
       </c>
       <c r="V54" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8670546412467957</v>
       </c>
       <c r="W54" t="n">
-        <v>0.3057545125484467</v>
+        <v>0.2264148890972137</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3905239105224609</v>
       </c>
       <c r="V55" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4861341118812561</v>
       </c>
       <c r="W55" t="n">
-        <v>0.3062948882579803</v>
+        <v>0.009141311049461365</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3893418312072754</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.498515397310257</v>
       </c>
       <c r="W56" t="n">
-        <v>3.580793418223038e-06</v>
+        <v>0.0119188679382205</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3903648853302002</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4967450201511383</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07074308395385742</v>
+        <v>0.01131673343479633</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3899099826812744</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.5130577087402344</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01536969188600779</v>
+        <v>0.01516536250710487</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3862488269805908</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8965640664100647</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08180426061153412</v>
+        <v>0.2604216337203979</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4112091064453125</v>
       </c>
       <c r="V60" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8735507130622864</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05941736325621605</v>
+        <v>0.2137597650289536</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3894948959350586</v>
       </c>
       <c r="V61" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4884235262870789</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3098936378955841</v>
+        <v>0.009786874055862427</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.148676872253418</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.4905856847763062</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2039088159799576</v>
+        <v>0.4330840110778809</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8699791431427002</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.5150769352912903</v>
       </c>
       <c r="W63" t="n">
-        <v>0.126362606883049</v>
+        <v>0.1259555816650391</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9214279651641846</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8709527850151062</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1186866164207458</v>
+        <v>0.002547743730247021</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8724958896636963</v>
       </c>
       <c r="V65" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.5160274505615234</v>
       </c>
       <c r="W65" t="n">
-        <v>0.007883843965828419</v>
+        <v>0.1270697414875031</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.866657018661499</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.3975684940814972</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04484120383858681</v>
+        <v>0.2200440466403961</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.86651611328125</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8585938215255737</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1242026090621948</v>
+        <v>6.276270869420841e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9416589736938477</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8682764172554016</v>
       </c>
       <c r="W68" t="n">
-        <v>0.01803373545408249</v>
+        <v>0.005384999793022871</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8710658550262451</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8715645670890808</v>
       </c>
       <c r="W69" t="n">
-        <v>0.134570449590683</v>
+        <v>2.487137180651189e-07</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8649971485137939</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.3975530862808228</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2128691375255585</v>
+        <v>0.2185039520263672</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8691041469573975</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4894955158233643</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2166121453046799</v>
+        <v>0.1441027075052261</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9233388900756836</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.8855911493301392</v>
       </c>
       <c r="W72" t="n">
-        <v>0.05754640325903893</v>
+        <v>0.001424891874194145</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8746638298034668</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5131739974021912</v>
       </c>
       <c r="W73" t="n">
-        <v>0.09852317720651627</v>
+        <v>0.1306748986244202</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.86319899559021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8655020594596863</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2625831067562103</v>
+        <v>5.304103069647681e-06</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.874953031539917</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8738073110580444</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2221842110157013</v>
+        <v>1.312675408371433e-06</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9410128593444824</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8800637722015381</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2426639199256897</v>
+        <v>0.00371479126624763</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8737771511077881</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.3975636065006256</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2164388597011566</v>
+        <v>0.2267793416976929</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8663449287414551</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4010264873504639</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1131997108459473</v>
+        <v>0.2165212482213974</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8819448947906494</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.5130125880241394</v>
       </c>
       <c r="W79" t="n">
-        <v>0.03369870036840439</v>
+        <v>0.1361110508441925</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9179439544677734</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8691807389259338</v>
       </c>
       <c r="W80" t="n">
-        <v>0.07561541348695755</v>
+        <v>0.002377851167693734</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8630130290985107</v>
       </c>
       <c r="V81" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5091035962104797</v>
       </c>
       <c r="W81" t="n">
-        <v>0.262877881526947</v>
+        <v>0.1252518892288208</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5750439167022705</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.897245466709137</v>
       </c>
       <c r="W82" t="n">
-        <v>0.003737800987437367</v>
+        <v>0.1038138419389725</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5325441360473633</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4009715616703033</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0008468100568279624</v>
+        <v>0.01731134206056595</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5314269065856934</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4027338922023773</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0008507241145707667</v>
+        <v>0.01656189188361168</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5200700759887695</v>
       </c>
       <c r="V85" t="n">
-        <v>0.654166579246521</v>
+        <v>0.3975282609462738</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0179818719625473</v>
+        <v>0.01501649618148804</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5169711112976074</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.5080375075340271</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0002397202770225704</v>
+        <v>7.980927330208942e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5149509906768799</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4911038279533386</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01239784713834524</v>
+        <v>0.0005686871591024101</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5150988101959229</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8788431286811829</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02711115032434464</v>
+        <v>0.1323099285364151</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5172140598297119</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8625196218490601</v>
       </c>
       <c r="W89" t="n">
-        <v>0.002599701983854175</v>
+        <v>0.1192359328269958</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5482549667358398</v>
       </c>
       <c r="V90" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8594884276390076</v>
       </c>
       <c r="W90" t="n">
-        <v>0.1554871499538422</v>
+        <v>0.09686626493930817</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5184290409088135</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4028182029724121</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0002730372361838818</v>
+        <v>0.01336586568504572</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.516981840133667</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4821948409080505</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0005940574337728322</v>
+        <v>0.001210135291330516</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5209181308746338</v>
       </c>
       <c r="V93" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.3975669741630554</v>
       </c>
       <c r="W93" t="n">
-        <v>0.1776821166276932</v>
+        <v>0.01521550770848989</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5173120498657227</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8721060752868652</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01882884465157986</v>
+        <v>0.1258787959814072</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5817880630493164</v>
       </c>
       <c r="V95" t="n">
-        <v>0.672245979309082</v>
+        <v>0.5483161807060242</v>
       </c>
       <c r="W95" t="n">
-        <v>0.008182634599506855</v>
+        <v>0.001120366854593158</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5193848609924316</v>
       </c>
       <c r="V96" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.8921143412590027</v>
       </c>
       <c r="W96" t="n">
-        <v>0.06976150721311569</v>
+        <v>0.1389272660017014</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5212528705596924</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4981184899806976</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01974103972315788</v>
+        <v>0.0005351995932869613</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.518949031829834</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4018262624740601</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01329314149916172</v>
+        <v>0.01371774263679981</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5210399627685547</v>
       </c>
       <c r="V99" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4221478402614594</v>
       </c>
       <c r="W99" t="n">
-        <v>0.000176481218659319</v>
+        <v>0.009779651649296284</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5203490257263184</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4950526654720306</v>
       </c>
       <c r="W100" t="n">
-        <v>0.03139678388834</v>
+        <v>0.000639905862044543</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5205750465393066</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8980292677879333</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01952808909118176</v>
+        <v>0.1424716860055923</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4002079963684082</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8669909834861755</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0008685702923685312</v>
+        <v>0.217886358499527</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4022829532623291</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8706925511360168</v>
       </c>
       <c r="W103" t="n">
-        <v>1.798801122276927e-06</v>
+        <v>0.2194075584411621</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3928868770599365</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.5165016651153564</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0004923910018987954</v>
+        <v>0.01528061553835869</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4001638889312744</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4028878808021545</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01877560466527939</v>
+        <v>7.420131623803172e-06</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3876640796661377</v>
       </c>
       <c r="V106" t="n">
-        <v>0.946087121963501</v>
+        <v>0.3992269933223724</v>
       </c>
       <c r="W106" t="n">
-        <v>0.311836302280426</v>
+        <v>0.0001337009744020179</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3897330760955811</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5130724906921387</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02307199686765671</v>
+        <v>0.01521261129528284</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3909368515014648</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8846459984779358</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0002350733702769503</v>
+        <v>0.2437487244606018</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3894879817962646</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8922857642173767</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01256542187184095</v>
+        <v>0.2528056204319</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3887388706207275</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.5078980922698975</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01369301322847605</v>
+        <v>0.01419891975820065</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.394212007522583</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8829413056373596</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01961663924157619</v>
+        <v>0.2388563305139542</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4121630191802979</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.4107226133346558</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01669682562351227</v>
+        <v>2.074769099635887e-06</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3938138484954834</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.4216931760311127</v>
       </c>
       <c r="W113" t="n">
-        <v>0.003217035438865423</v>
+        <v>0.0007772569078952074</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.396996021270752</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.3975645899772644</v>
       </c>
       <c r="W114" t="n">
-        <v>0.002645852975547314</v>
+        <v>3.232703704725282e-07</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3917551040649414</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4911841750144958</v>
       </c>
       <c r="W115" t="n">
-        <v>0.06396293640136719</v>
+        <v>0.009886140003800392</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.391571044921875</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4830659627914429</v>
       </c>
       <c r="W116" t="n">
-        <v>0.012472003698349</v>
+        <v>0.008371319621801376</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3921539783477783</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.3991357088088989</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0001258210395462811</v>
+        <v>4.874456135439686e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4153850078582764</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8656410574913025</v>
       </c>
       <c r="W118" t="n">
-        <v>0.001095204264856875</v>
+        <v>0.2027305066585541</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3929860591888428</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4853993654251099</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0003219970676582307</v>
+        <v>0.008540219627320766</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3940401077270508</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4038797616958618</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0001687129406491295</v>
+        <v>9.681878873379901e-05</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3932180404663086</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.8699204921722412</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1719540655612946</v>
+        <v>0.2272452265024185</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8687918186187744</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8654659390449524</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2683402001857758</v>
+        <v>1.106147465179674e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8998880386352539</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8570642471313477</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2463137656450272</v>
+        <v>0.001833877060562372</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8713300228118896</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.401006281375885</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1278423666954041</v>
+        <v>0.2212044149637222</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8762388229370117</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.3975590169429779</v>
       </c>
       <c r="W125" t="n">
-        <v>0.04812215268611908</v>
+        <v>0.2291343510150909</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8768019676208496</v>
       </c>
       <c r="V126" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8780075907707214</v>
       </c>
       <c r="W126" t="n">
-        <v>0.004526349250227213</v>
+        <v>1.453527147532441e-06</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8773062229156494</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8989680409431458</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1392157822847366</v>
+        <v>0.0004692343645729125</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8693480491638184</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4035090804100037</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2169200778007507</v>
+        <v>0.2170059382915497</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8671379089355469</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4035606980323792</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1515547782182693</v>
+        <v>0.2149038314819336</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8761179447174072</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.5069947838783264</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1149247884750366</v>
+        <v>0.1362519115209579</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.86661696434021</v>
       </c>
       <c r="V131" t="n">
-        <v>0.782903790473938</v>
+        <v>0.3975615203380585</v>
       </c>
       <c r="W131" t="n">
-        <v>0.00700789550319314</v>
+        <v>0.2200130075216293</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8735339641571045</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8595111966133118</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1366167217493057</v>
+        <v>0.0001966380077647045</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8853759765625</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.403491884469986</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2321009933948517</v>
+        <v>0.2322122752666473</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8667550086975098</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.4869653582572937</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2144444286823273</v>
+        <v>0.1442401856184006</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9346470832824707</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4022260308265686</v>
       </c>
       <c r="W135" t="n">
-        <v>0.07719911634922028</v>
+        <v>0.2834721803665161</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8702070713043213</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4824767112731934</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1760151833295822</v>
+        <v>0.1503348350524902</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.874222993850708</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.493540346622467</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1369260251522064</v>
+        <v>0.1449192762374878</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8667788505554199</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.401030421257019</v>
       </c>
       <c r="W138" t="n">
-        <v>0.02843105234205723</v>
+        <v>0.2169215977191925</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.9381630420684814</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4039973616600037</v>
       </c>
       <c r="W139" t="n">
-        <v>0.06534725427627563</v>
+        <v>0.285332977771759</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8753669261932373</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.49610236287117</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04863596707582474</v>
+        <v>0.1438416093587875</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8740010261535645</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8979001641273499</v>
       </c>
       <c r="W141" t="n">
-        <v>0.08827376365661621</v>
+        <v>0.0005711687845177948</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5412149429321289</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.509196400642395</v>
       </c>
       <c r="W142" t="n">
-        <v>0.168296605348587</v>
+        <v>0.001025187084451318</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5235650539398193</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8696614503860474</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01399392168968916</v>
+        <v>0.1197827160358429</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5222420692443848</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8891021013259888</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01406471151858568</v>
+        <v>0.134586289525032</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5218429565429688</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4877389371395111</v>
       </c>
       <c r="W145" t="n">
-        <v>6.709719309583306e-05</v>
+        <v>0.001163084176369011</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5231330394744873</v>
       </c>
       <c r="V146" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8871856927871704</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0003537725133355707</v>
+        <v>0.1325343400239944</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5505208969116211</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8774226903915405</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002087832195684314</v>
+        <v>0.1068647801876068</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5306670665740967</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.872175931930542</v>
       </c>
       <c r="W148" t="n">
-        <v>0.006400326266884804</v>
+        <v>0.1166283041238785</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5736639499664307</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.5130674839019775</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003496957710012794</v>
+        <v>0.003671931801363826</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5320158004760742</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.8705635070800781</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01647158525884151</v>
+        <v>0.1146145462989807</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5210921764373779</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8691942691802979</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0001827727392083034</v>
+        <v>0.1211750656366348</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5172209739685059</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4914654791355133</v>
       </c>
       <c r="W152" t="n">
-        <v>0.005089560523629189</v>
+        <v>0.0006633455050177872</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5192840099334717</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4038655757904053</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01338632591068745</v>
+        <v>0.0133214145898819</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5420777797698975</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4915076494216919</v>
       </c>
       <c r="W154" t="n">
-        <v>4.782179985340917e-07</v>
+        <v>0.002557337982580066</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5242021083831787</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5128811597824097</v>
       </c>
       <c r="W155" t="n">
-        <v>0.002153240377083421</v>
+        <v>0.0001281638833461329</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.52451491355896</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8673849701881409</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0221247561275959</v>
+        <v>0.1175598725676537</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.571666955947876</v>
       </c>
       <c r="V157" t="n">
-        <v>0.514474630355835</v>
+        <v>0.513236939907074</v>
       </c>
       <c r="W157" t="n">
-        <v>0.003270962042734027</v>
+        <v>0.003414066741243005</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5241310596466064</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4028557240962982</v>
       </c>
       <c r="W158" t="n">
-        <v>0.000107715321064461</v>
+        <v>0.01470770686864853</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5217080116271973</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.490996390581131</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0003868483181577176</v>
+        <v>0.0009432036895304918</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5251271724700928</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8672517538070679</v>
       </c>
       <c r="W160" t="n">
-        <v>0.03039544634521008</v>
+        <v>0.1170492321252823</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5218539237976074</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5287647247314453</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002801546826958656</v>
+        <v>4.775917113875039e-05</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3973138332366943</v>
       </c>
       <c r="V162" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8657498359680176</v>
       </c>
       <c r="W162" t="n">
-        <v>0.002165022306144238</v>
+        <v>0.2194322943687439</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4021990299224854</v>
       </c>
       <c r="V163" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.4040067493915558</v>
       </c>
       <c r="W163" t="n">
-        <v>0.1449154168367386</v>
+        <v>3.267849706389825e-06</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3928890228271484</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.4222764074802399</v>
       </c>
       <c r="W164" t="n">
-        <v>0.00177253654692322</v>
+        <v>0.0008636183920316398</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.39375901222229</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4119021594524384</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0618809387087822</v>
+        <v>0.0003291737812105566</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3928210735321045</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4886838495731354</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01926121115684509</v>
+        <v>0.009189671836793423</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3963360786437988</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8717243075370789</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06038635969161987</v>
+        <v>0.2259939610958099</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3914539813995361</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3975931107997894</v>
       </c>
       <c r="W168" t="n">
-        <v>0.03409410640597343</v>
+        <v>3.768891110667028e-05</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3949759006500244</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.506901741027832</v>
       </c>
       <c r="W169" t="n">
-        <v>0.006901735905557871</v>
+        <v>0.01252739410847425</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.395698070526123</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8674373626708984</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02751545049250126</v>
+        <v>0.2225379645824432</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3914849758148193</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4027559161186218</v>
       </c>
       <c r="W171" t="n">
-        <v>0.001528310589492321</v>
+        <v>0.000127034101751633</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3960590362548828</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.422788143157959</v>
       </c>
       <c r="W172" t="n">
-        <v>5.335208697943017e-05</v>
+        <v>0.0007144451374188066</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3936629295349121</v>
       </c>
       <c r="V173" t="n">
-        <v>0.466268926858902</v>
+        <v>0.5007460117340088</v>
       </c>
       <c r="W173" t="n">
-        <v>0.005271630827337503</v>
+        <v>0.01146678626537323</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4216320514678955</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.422889232635498</v>
       </c>
       <c r="W174" t="n">
-        <v>0.03480686992406845</v>
+        <v>1.580504431331065e-06</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3930389881134033</v>
       </c>
       <c r="V175" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4986466765403748</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1520299762487411</v>
+        <v>0.01115298364311457</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3976650238037109</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4017819762229919</v>
       </c>
       <c r="W176" t="n">
-        <v>3.516462311381474e-05</v>
+        <v>1.69492977875052e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4102790355682373</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4228724539279938</v>
       </c>
       <c r="W177" t="n">
-        <v>0.003541034879162908</v>
+        <v>0.0001585941790835932</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3963561058044434</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4213779270648956</v>
       </c>
       <c r="W178" t="n">
-        <v>0.08651930838823318</v>
+        <v>0.0006260915542952716</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3977768421173096</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.5159134864807129</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0002790512517094612</v>
+        <v>0.01395626645535231</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3955609798431396</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4092134237289429</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0002072202769340947</v>
+        <v>0.0001863892248366028</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4182510375976562</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8723561763763428</v>
       </c>
       <c r="W181" t="n">
-        <v>0.004552234895527363</v>
+        <v>0.2062114775180817</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8804221153259277</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4089026153087616</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1179153770208359</v>
+        <v>0.2223306447267532</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9244890213012695</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4100524485111237</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1681449860334396</v>
+        <v>0.2646450102329254</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8728549480438232</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.3990890085697174</v>
       </c>
       <c r="W184" t="n">
-        <v>0.004091074224561453</v>
+        <v>0.2244541645050049</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.882908821105957</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4963979125022888</v>
       </c>
       <c r="W185" t="n">
-        <v>0.163815900683403</v>
+        <v>0.1493906825780869</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8713791370391846</v>
       </c>
       <c r="V186" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8672123551368713</v>
       </c>
       <c r="W186" t="n">
-        <v>0.005608354229480028</v>
+        <v>1.736207195790485e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9311480522155762</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4945290982723236</v>
       </c>
       <c r="W187" t="n">
-        <v>0.174252912402153</v>
+        <v>0.1906361132860184</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8714909553527832</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.5131289958953857</v>
       </c>
       <c r="W188" t="n">
-        <v>0.126863569021225</v>
+        <v>0.1284232884645462</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8738999366760254</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5130106210708618</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2215403914451599</v>
+        <v>0.1302410960197449</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8699369430541992</v>
       </c>
       <c r="V190" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8632730841636658</v>
       </c>
       <c r="W190" t="n">
-        <v>0.007607923354953527</v>
+        <v>4.440701377461664e-05</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9405331611633301</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.3975788950920105</v>
       </c>
       <c r="W191" t="n">
-        <v>0.01600846648216248</v>
+        <v>0.2947993278503418</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8693850040435791</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8712349534034729</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1102386564016342</v>
+        <v>3.422312602197053e-06</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8742671012878418</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8738251924514771</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1401697993278503</v>
+        <v>1.952834196572439e-07</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8682360649108887</v>
       </c>
       <c r="V194" t="n">
-        <v>0.514564037322998</v>
+        <v>0.8695235848426819</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1250839084386826</v>
+        <v>1.657707571212086e-06</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8788471221923828</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.5132466554641724</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2258636653423309</v>
+        <v>0.1336636990308762</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8665859699249268</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.3990878462791443</v>
       </c>
       <c r="W196" t="n">
-        <v>0.003384895622730255</v>
+        <v>0.2185544967651367</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8695170879364014</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.4053975045681</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2170804738998413</v>
+        <v>0.2154069840908051</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8691279888153076</v>
       </c>
       <c r="V198" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8722418546676636</v>
       </c>
       <c r="W198" t="n">
-        <v>0.005371876992285252</v>
+        <v>9.696160304883961e-06</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8768620491027832</v>
       </c>
       <c r="V199" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8682481050491333</v>
       </c>
       <c r="W199" t="n">
-        <v>0.005364278331398964</v>
+        <v>7.420003385050222e-05</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8661148548126221</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8830824494361877</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04133282974362373</v>
+        <v>0.0002878992818295956</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8832371234893799</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5134986042976379</v>
       </c>
       <c r="W201" t="n">
-        <v>0.05864803120493889</v>
+        <v>0.1367065757513046</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5254499912261963</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.8706062436103821</v>
       </c>
       <c r="W202" t="n">
-        <v>0.005607501603662968</v>
+        <v>0.1191328391432762</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5625450611114502</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8714843988418579</v>
       </c>
       <c r="W203" t="n">
-        <v>0.04414788261055946</v>
+        <v>0.09544351696968079</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.6333870887756348</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4038651287555695</v>
       </c>
       <c r="W204" t="n">
-        <v>0.07986249774694443</v>
+        <v>0.05268032848834991</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5219728946685791</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4227786660194397</v>
       </c>
       <c r="W205" t="n">
-        <v>0.004460233263671398</v>
+        <v>0.009839494712650776</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5240390300750732</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8679295182228088</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0167299285531044</v>
+        <v>0.1182606667280197</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5217218399047852</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4923299252986908</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001542089506983757</v>
+        <v>0.000863884633872658</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.576171875</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4940288066864014</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00583682069554925</v>
+        <v>0.006747483741492033</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5206000804901123</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8911803960800171</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0002634918200783432</v>
+        <v>0.1373297721147537</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5233731269836426</v>
       </c>
       <c r="V210" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.3975678086280823</v>
       </c>
       <c r="W210" t="n">
-        <v>0.07947046309709549</v>
+        <v>0.01582697778940201</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5335378646850586</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.861406683921814</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01686963066458702</v>
+        <v>0.1074979603290558</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5323429107666016</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4013463258743286</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0003371034108567983</v>
+        <v>0.01716010458767414</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5733790397644043</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.3975825905799866</v>
       </c>
       <c r="W213" t="n">
-        <v>0.00487750256434083</v>
+        <v>0.03090439178049564</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5270500183105469</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8945203423500061</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0005367713165469468</v>
+        <v>0.135034441947937</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.526298999786377</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.3975904285907745</v>
       </c>
       <c r="W215" t="n">
-        <v>0.005737582687288523</v>
+        <v>0.01656589657068253</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.529810905456543</v>
       </c>
       <c r="V216" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8897657990455627</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1702933013439178</v>
+        <v>0.1295675188302994</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5226759910583496</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8861138224601746</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02169658988714218</v>
+        <v>0.1320870518684387</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5244178771972656</v>
       </c>
       <c r="V218" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.3975902497768402</v>
       </c>
       <c r="W218" t="n">
-        <v>0.06696653366088867</v>
+        <v>0.01608524657785892</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5259931087493896</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.3976065218448639</v>
       </c>
       <c r="W219" t="n">
-        <v>0.07834972441196442</v>
+        <v>0.01648311503231525</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5268080234527588</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4876139760017395</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03040808439254761</v>
+        <v>0.001536173396743834</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5223739147186279</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.500636875629425</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01416502613574266</v>
+        <v>0.0004724988539237529</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3899061679840088</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.5132202506065369</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0208902470767498</v>
+        <v>0.01520636305212975</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3939900398254395</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4902578294277191</v>
       </c>
       <c r="W223" t="n">
-        <v>0.00186733843293041</v>
+        <v>0.009267487563192844</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4019050598144531</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4109608829021454</v>
       </c>
       <c r="W224" t="n">
-        <v>0.06404786556959152</v>
+        <v>8.200792944990098e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4157171249389648</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8763144612312317</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01258694566786289</v>
+        <v>0.212149903178215</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3983199596405029</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8653276562690735</v>
       </c>
       <c r="W226" t="n">
-        <v>0.02040477283298969</v>
+        <v>0.2180961817502975</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3972129821777344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8924770355224609</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01068335026502609</v>
+        <v>0.2452864795923233</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.398716926574707</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.410401850938797</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1707841157913208</v>
+        <v>0.0001365374628221616</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4088289737701416</v>
       </c>
       <c r="V229" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8671441674232483</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06926918029785156</v>
+        <v>0.2100528180599213</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3947978019714355</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4877751767635345</v>
       </c>
       <c r="W230" t="n">
-        <v>0.06755270808935165</v>
+        <v>0.008644792251288891</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3972208499908447</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8567795157432556</v>
       </c>
       <c r="W231" t="n">
-        <v>3.852967711281963e-05</v>
+        <v>0.211194172501564</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3976678848266602</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8905846476554871</v>
       </c>
       <c r="W232" t="n">
-        <v>0.002199582522735</v>
+        <v>0.2429669350385666</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3998022079467773</v>
       </c>
       <c r="V233" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8681017756462097</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1475397348403931</v>
+        <v>0.2193044871091843</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3975799083709717</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4229649603366852</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0006999135366640985</v>
+        <v>0.0006444008904509246</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3983488082885742</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4104072451591492</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01070147100836039</v>
+        <v>0.0001454058947274461</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3972029685974121</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4837231934070587</v>
       </c>
       <c r="W236" t="n">
-        <v>0.002154355170205235</v>
+        <v>0.007485749199986458</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4005980491638184</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.8656759858131409</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06545493006706238</v>
+        <v>0.2162974923849106</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3927309513092041</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4100180268287659</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01217683590948582</v>
+        <v>0.0002988429914694279</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4105041027069092</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.5078334212303162</v>
       </c>
       <c r="W239" t="n">
-        <v>0.003615950234234333</v>
+        <v>0.00947299599647522</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.391334056854248</v>
       </c>
       <c r="V240" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4891965687274933</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1671671569347382</v>
+        <v>0.009577071294188499</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3944098949432373</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.5131428837776184</v>
       </c>
       <c r="W241" t="n">
-        <v>0.172774150967598</v>
+        <v>0.01409752294421196</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9507699012756348</v>
       </c>
       <c r="V242" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4873164594173431</v>
       </c>
       <c r="W242" t="n">
-        <v>0.01970765553414822</v>
+        <v>0.214789092540741</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8842740058898926</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8694659471511841</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05902821943163872</v>
+        <v>0.0002192786050727591</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.876032829284668</v>
       </c>
       <c r="V244" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4114498794078827</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1186697781085968</v>
+        <v>0.2158373147249222</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.879694938659668</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.3976012468338013</v>
       </c>
       <c r="W245" t="n">
-        <v>0.05147824436426163</v>
+        <v>0.2324143350124359</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9380500316619873</v>
       </c>
       <c r="V246" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.5129669904708862</v>
       </c>
       <c r="W246" t="n">
-        <v>0.02389033138751984</v>
+        <v>0.1806955933570862</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8796579837799072</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4034814536571503</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1410648673772812</v>
+        <v>0.2267440855503082</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8730499744415283</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.3991308212280273</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1563568711280823</v>
+        <v>0.2245993614196777</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8841078281402588</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4040495753288269</v>
       </c>
       <c r="W249" t="n">
-        <v>0.0534750409424305</v>
+        <v>0.2304559201002121</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9316799640655518</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4942589402198792</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1523889303207397</v>
+        <v>0.1913371533155441</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9111440181732178</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.4211515784263611</v>
       </c>
       <c r="W251" t="n">
-        <v>0.3140040934085846</v>
+        <v>0.2400925904512405</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8924710750579834</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4220074415206909</v>
       </c>
       <c r="W252" t="n">
-        <v>0.006783370859920979</v>
+        <v>0.2213360369205475</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.879033088684082</v>
       </c>
       <c r="V253" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.5165892839431763</v>
       </c>
       <c r="W253" t="n">
-        <v>0.006234465166926384</v>
+        <v>0.1313655078411102</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9373199939727783</v>
       </c>
       <c r="V254" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4098883271217346</v>
       </c>
       <c r="W254" t="n">
-        <v>0.3155951201915741</v>
+        <v>0.278184175491333</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8795151710510254</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8700062036514282</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1141819134354591</v>
+        <v>9.0420464402996e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8755490779876709</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4821516275405884</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1163313463330269</v>
+        <v>0.1547615528106689</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8784940242767334</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4036123156547546</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2523287832736969</v>
+        <v>0.2255126386880875</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9273321628570557</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.873607337474823</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2126254290342331</v>
+        <v>0.00288635678589344</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9284858703613281</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3976156115531921</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1793915778398514</v>
+        <v>0.2818232178688049</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>1.038738965988159</v>
       </c>
       <c r="V260" t="n">
-        <v>0.375304102897644</v>
+        <v>0.3990944921970367</v>
       </c>
       <c r="W260" t="n">
-        <v>0.4401458203792572</v>
+        <v>0.4091450870037079</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9360530376434326</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4893761873245239</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1074713841080666</v>
+        <v>0.1995202153921127</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.6115219593048096</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.4987603425979614</v>
       </c>
       <c r="W262" t="n">
-        <v>0.03934445232152939</v>
+        <v>0.01271518226712942</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5627081394195557</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.874049961566925</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03509080037474632</v>
+        <v>0.09693372994661331</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5431249141693115</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.3975769579410553</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0002379259240115061</v>
+        <v>0.02118420787155628</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5298290252685547</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4909632503986359</v>
       </c>
       <c r="W265" t="n">
-        <v>5.684961433871649e-05</v>
+        <v>0.001510548405349255</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.568809986114502</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8739205002784729</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002987724496051669</v>
+        <v>0.0930924266576767</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5278389453887939</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4027968645095825</v>
       </c>
       <c r="W267" t="n">
-        <v>9.245174442185089e-05</v>
+        <v>0.01563552208244801</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5306758880615234</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8819732666015625</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0007786750211380422</v>
+        <v>0.1234098449349403</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.52907395362854</v>
       </c>
       <c r="V269" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4110392928123474</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0002144056197721511</v>
+        <v>0.01393218152225018</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5259721279144287</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.866891086101532</v>
       </c>
       <c r="W270" t="n">
-        <v>0.00120147957932204</v>
+        <v>0.1162257343530655</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5240428447723389</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4982502460479736</v>
       </c>
       <c r="W271" t="n">
-        <v>0.03001871891319752</v>
+        <v>0.0006652581505477428</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5553741455078125</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8944463729858398</v>
       </c>
       <c r="W272" t="n">
-        <v>0.001685001072473824</v>
+        <v>0.114969976246357</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5266990661621094</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4910501837730408</v>
       </c>
       <c r="W273" t="n">
-        <v>0.005407899618148804</v>
+        <v>0.001270842854864895</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5325989723205566</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8598988652229309</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02249899134039879</v>
+        <v>0.1071252226829529</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5259091854095459</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4966324269771576</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02409022301435471</v>
+        <v>0.0008571285870857537</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5237808227539062</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4185391068458557</v>
       </c>
       <c r="W276" t="n">
-        <v>0.02041522040963173</v>
+        <v>0.0110758189111948</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5799500942230225</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.5131489038467407</v>
       </c>
       <c r="W277" t="n">
-        <v>0.03121007233858109</v>
+        <v>0.004462399054318666</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.527108907699585</v>
       </c>
       <c r="V278" t="n">
-        <v>0.541418194770813</v>
+        <v>0.3975582122802734</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0002047556918114424</v>
+        <v>0.01678338274359703</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5287110805511475</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8781167268753052</v>
       </c>
       <c r="W279" t="n">
-        <v>0.003580493154004216</v>
+        <v>0.122084304690361</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5256500244140625</v>
       </c>
       <c r="V280" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4097102582454681</v>
       </c>
       <c r="W280" t="n">
-        <v>0.1782885491847992</v>
+        <v>0.01344202924519777</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5282859802246094</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8714964389801025</v>
       </c>
       <c r="W281" t="n">
-        <v>1.537355637992732e-05</v>
+        <v>0.1177934184670448</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4666299819946289</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.5462737679481506</v>
       </c>
       <c r="W282" t="n">
-        <v>0.03125322982668877</v>
+        <v>0.006343132816255093</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4045131206512451</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.4985074698925018</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01838544383645058</v>
+        <v>0.008834937587380409</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4036800861358643</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4914416372776031</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01896429993212223</v>
+        <v>0.007702089846134186</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4008188247680664</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8782688975334167</v>
       </c>
       <c r="W285" t="n">
-        <v>0.05807844176888466</v>
+        <v>0.2279585748910904</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4026830196380615</v>
       </c>
       <c r="V286" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.8600957989692688</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1454615890979767</v>
+        <v>0.2092264443635941</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4012391567230225</v>
       </c>
       <c r="V287" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.5132405757904053</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1450403332710266</v>
+        <v>0.01254431810230017</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4023351669311523</v>
       </c>
       <c r="V288" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.3976038098335266</v>
       </c>
       <c r="W288" t="n">
-        <v>0.2976087927818298</v>
+        <v>2.238574052171316e-05</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4071059226989746</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4093132019042969</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1672544181346893</v>
+        <v>4.872081262874417e-06</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3972930908203125</v>
       </c>
       <c r="V290" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.397529125213623</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1686602681875229</v>
+        <v>5.571223482547794e-08</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4016580581665039</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4036186337471008</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0574532151222229</v>
+        <v>3.843856575258542e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4093470573425293</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.8978915810585022</v>
       </c>
       <c r="W292" t="n">
-        <v>3.238704812247306e-05</v>
+        <v>0.2386757582426071</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4002349376678467</v>
       </c>
       <c r="V293" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8735999464988708</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1463872790336609</v>
+        <v>0.2240744382143021</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3994050025939941</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.403748631477356</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1773868799209595</v>
+        <v>1.88671110663563e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4000530242919922</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.861184298992157</v>
       </c>
       <c r="W295" t="n">
-        <v>0.06490297615528107</v>
+        <v>0.2126420587301254</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4001438617706299</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4039064645767212</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01061788853257895</v>
+        <v>1.415717997588217e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3999428749084473</v>
       </c>
       <c r="V297" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8838715553283691</v>
       </c>
       <c r="W297" t="n">
-        <v>0.2984766960144043</v>
+        <v>0.2341869622468948</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4028818607330322</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4986497163772583</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002286367816850543</v>
+        <v>0.009171482175588608</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4017751216888428</v>
       </c>
       <c r="V299" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4301073253154755</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01947003602981567</v>
+        <v>0.0008027137373574078</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.40077805519104</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.5258693695068359</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1650507897138596</v>
+        <v>0.01564783602952957</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4019360542297363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8649130463600159</v>
       </c>
       <c r="W301" t="n">
-        <v>0.06483089923858643</v>
+        <v>0.2143476903438568</v>
       </c>
     </row>
     <row r="302" spans="1:23">
